--- a/data/trans_dic/IP07C31_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP07C31_2023-Estudios-trans_dic.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,31</t>
+          <t>0,0; 56,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,28</t>
+          <t>0,0; 33,22</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,94; 16,13</t>
+          <t>7,04; 15,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,91; 18,28</t>
+          <t>8,47; 19,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,48; 15,1</t>
+          <t>8,52; 14,79</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 21,31</t>
+          <t>4,13; 23,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 20,25</t>
+          <t>3,39; 22,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,07; 17,29</t>
+          <t>5,32; 18,61</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,8; 15,31</t>
+          <t>7,79; 15,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,88; 16,18</t>
+          <t>7,99; 16,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 14,14</t>
+          <t>8,72; 14,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP07C31_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP07C31_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,18 +497,18 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que han vivido situaciones de cyberbulling fuera de su colegio</t>
+          <t>Menores que refieren que se han producido situaciones de cyberbulling fuera de su colegio</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,84</t>
+          <t>0; 9,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0; 8,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,22</t>
+          <t>0; 4,78</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 15,35</t>
+          <t>0; 0,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 19,29</t>
+          <t>0; 0,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,52; 14,79</t>
+          <t>0; 0,46</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 23,34</t>
+          <t>0; 3,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 22,59</t>
+          <t>0; 2,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,32; 18,61</t>
+          <t>0; 1,51</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,79; 15,64</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,99; 16,3</t>
+          <t>0; 0,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,72; 14,38</t>
+          <t>0; 0,33</t>
         </is>
       </c>
     </row>
